--- a/BigDataAnalysis/Pandas/超市营业额.xlsx
+++ b/BigDataAnalysis/Pandas/超市营业额.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Advanced-Python\BigDataAnalysis\Pandas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551C9DEC-1C9E-454E-9619-88D539507A73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="12990" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="57">
   <si>
     <t>工号</t>
   </si>
@@ -192,361 +198,31 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -554,251 +230,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -813,61 +247,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1125,26 +515,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F250"/>
   <sheetViews>
     <sheetView zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
       <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.14285714285714" style="1"/>
-    <col min="3" max="3" width="12.0190476190476" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="1"/>
+    <col min="3" max="3" width="12" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1164,7 +554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1001</v>
       </c>
@@ -1184,7 +574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1002</v>
       </c>
@@ -1204,7 +594,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1003</v>
       </c>
@@ -1224,7 +614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>1004</v>
       </c>
@@ -1244,7 +634,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>1005</v>
       </c>
@@ -1264,7 +654,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>1006</v>
       </c>
@@ -1284,7 +674,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>1006</v>
       </c>
@@ -1304,7 +694,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>1001</v>
       </c>
@@ -1324,7 +714,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>1001</v>
       </c>
@@ -1344,7 +734,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>1002</v>
       </c>
@@ -1364,7 +754,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>1003</v>
       </c>
@@ -1384,7 +774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>1004</v>
       </c>
@@ -1404,7 +794,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>1005</v>
       </c>
@@ -1424,7 +814,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>1006</v>
       </c>
@@ -1444,7 +834,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>1002</v>
       </c>
@@ -1464,7 +854,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>1003</v>
       </c>
@@ -1484,7 +874,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>1001</v>
       </c>
@@ -1504,7 +894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>1002</v>
       </c>
@@ -1524,7 +914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>1003</v>
       </c>
@@ -1544,7 +934,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>1004</v>
       </c>
@@ -1564,7 +954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>1005</v>
       </c>
@@ -1584,7 +974,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>1006</v>
       </c>
@@ -1604,7 +994,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>1004</v>
       </c>
@@ -1624,7 +1014,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>1005</v>
       </c>
@@ -1644,7 +1034,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>1001</v>
       </c>
@@ -1664,7 +1054,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>1002</v>
       </c>
@@ -1684,7 +1074,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>1003</v>
       </c>
@@ -1704,7 +1094,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>1004</v>
       </c>
@@ -1724,7 +1114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>1005</v>
       </c>
@@ -1744,7 +1134,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>1006</v>
       </c>
@@ -1764,7 +1154,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>1002</v>
       </c>
@@ -1784,7 +1174,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>1005</v>
       </c>
@@ -1804,7 +1194,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>1001</v>
       </c>
@@ -1824,7 +1214,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>1002</v>
       </c>
@@ -1844,7 +1234,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>1003</v>
       </c>
@@ -1864,7 +1254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>1004</v>
       </c>
@@ -1884,7 +1274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>1005</v>
       </c>
@@ -1904,7 +1294,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>1006</v>
       </c>
@@ -1924,7 +1314,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>1002</v>
       </c>
@@ -1944,7 +1334,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>1001</v>
       </c>
@@ -1964,7 +1354,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>1001</v>
       </c>
@@ -1984,7 +1374,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>1002</v>
       </c>
@@ -2004,7 +1394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>1003</v>
       </c>
@@ -2024,7 +1414,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>1004</v>
       </c>
@@ -2044,7 +1434,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>1005</v>
       </c>
@@ -2064,7 +1454,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>1006</v>
       </c>
@@ -2084,7 +1474,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>1006</v>
       </c>
@@ -2104,7 +1494,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>1005</v>
       </c>
@@ -2124,7 +1514,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>1003</v>
       </c>
@@ -2144,7 +1534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>1002</v>
       </c>
@@ -2164,7 +1554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>1004</v>
       </c>
@@ -2184,7 +1574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>1004</v>
       </c>
@@ -2204,7 +1594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>1005</v>
       </c>
@@ -2224,7 +1614,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>1006</v>
       </c>
@@ -2244,7 +1634,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>1001</v>
       </c>
@@ -2264,7 +1654,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>1002</v>
       </c>
@@ -2284,7 +1674,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>1003</v>
       </c>
@@ -2304,7 +1694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>1002</v>
       </c>
@@ -2324,7 +1714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>1004</v>
       </c>
@@ -2344,7 +1734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>1004</v>
       </c>
@@ -2364,7 +1754,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>1005</v>
       </c>
@@ -2384,7 +1774,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>1006</v>
       </c>
@@ -2404,7 +1794,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>1002</v>
       </c>
@@ -2424,7 +1814,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>1003</v>
       </c>
@@ -2444,7 +1834,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>1003</v>
       </c>
@@ -2464,7 +1854,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>1002</v>
       </c>
@@ -2484,7 +1874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>1004</v>
       </c>
@@ -2504,7 +1894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>1004</v>
       </c>
@@ -2524,7 +1914,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>1005</v>
       </c>
@@ -2544,7 +1934,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>1006</v>
       </c>
@@ -2564,7 +1954,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>1006</v>
       </c>
@@ -2584,7 +1974,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>1003</v>
       </c>
@@ -2604,7 +1994,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>1001</v>
       </c>
@@ -2624,7 +2014,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>1001</v>
       </c>
@@ -2644,7 +2034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>1004</v>
       </c>
@@ -2664,7 +2054,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>1004</v>
       </c>
@@ -2684,7 +2074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>1005</v>
       </c>
@@ -2704,7 +2094,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>1005</v>
       </c>
@@ -2724,7 +2114,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>1002</v>
       </c>
@@ -2744,7 +2134,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>1003</v>
       </c>
@@ -2764,7 +2154,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>1004</v>
       </c>
@@ -2784,7 +2174,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <v>1002</v>
       </c>
@@ -2804,7 +2194,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <v>1006</v>
       </c>
@@ -2824,7 +2214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <v>1006</v>
       </c>
@@ -2844,7 +2234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
         <v>1005</v>
       </c>
@@ -2864,7 +2254,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>1005</v>
       </c>
@@ -2884,7 +2274,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
         <v>1003</v>
       </c>
@@ -2904,7 +2294,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>1004</v>
       </c>
@@ -2924,7 +2314,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <v>1004</v>
       </c>
@@ -2944,7 +2334,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <v>1002</v>
       </c>
@@ -2964,7 +2354,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <v>1001</v>
       </c>
@@ -2984,7 +2374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <v>1001</v>
       </c>
@@ -3004,7 +2394,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <v>1005</v>
       </c>
@@ -3024,7 +2414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>1005</v>
       </c>
@@ -3044,7 +2434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>1003</v>
       </c>
@@ -3064,7 +2454,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
         <v>1006</v>
       </c>
@@ -3084,7 +2474,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
         <v>1001</v>
       </c>
@@ -3104,7 +2494,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <v>1002</v>
       </c>
@@ -3124,7 +2514,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
         <v>1003</v>
       </c>
@@ -3144,7 +2534,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <v>1001</v>
       </c>
@@ -3164,7 +2554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
         <v>1004</v>
       </c>
@@ -3184,7 +2574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
         <v>1005</v>
       </c>
@@ -3204,7 +2594,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
         <v>1005</v>
       </c>
@@ -3224,7 +2614,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <v>1006</v>
       </c>
@@ -3244,7 +2634,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
         <v>1006</v>
       </c>
@@ -3264,7 +2654,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
         <v>1001</v>
       </c>
@@ -3284,7 +2674,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
         <v>1002</v>
       </c>
@@ -3304,7 +2694,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
         <v>1003</v>
       </c>
@@ -3324,7 +2714,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
         <v>1004</v>
       </c>
@@ -3344,7 +2734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
         <v>1004</v>
       </c>
@@ -3364,7 +2754,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
         <v>1005</v>
       </c>
@@ -3381,7 +2771,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
         <v>1005</v>
       </c>
@@ -3401,7 +2791,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
         <v>1001</v>
       </c>
@@ -3421,7 +2811,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
         <v>1002</v>
       </c>
@@ -3441,7 +2831,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
         <v>1002</v>
       </c>
@@ -3461,7 +2851,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
         <v>1003</v>
       </c>
@@ -3481,7 +2871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
         <v>1006</v>
       </c>
@@ -3501,7 +2891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
         <v>1004</v>
       </c>
@@ -3521,7 +2911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
         <v>1005</v>
       </c>
@@ -3541,7 +2931,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
         <v>1005</v>
       </c>
@@ -3561,7 +2951,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
         <v>1001</v>
       </c>
@@ -3581,7 +2971,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
         <v>1002</v>
       </c>
@@ -3601,7 +2991,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
         <v>1002</v>
       </c>
@@ -3621,7 +3011,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
         <v>1003</v>
       </c>
@@ -3641,7 +3031,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
         <v>1006</v>
       </c>
@@ -3658,7 +3048,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
         <v>1004</v>
       </c>
@@ -3678,7 +3068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
         <v>1005</v>
       </c>
@@ -3698,7 +3088,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
         <v>1005</v>
       </c>
@@ -3718,7 +3108,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" s="1">
         <v>1001</v>
       </c>
@@ -3738,7 +3128,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" s="1">
         <v>1002</v>
       </c>
@@ -3758,7 +3148,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" s="1">
         <v>1003</v>
       </c>
@@ -3778,7 +3168,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
         <v>1003</v>
       </c>
@@ -3798,7 +3188,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134" s="1">
         <v>1006</v>
       </c>
@@ -3818,7 +3208,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135" s="1">
         <v>1004</v>
       </c>
@@ -3838,7 +3228,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136" s="1">
         <v>1004</v>
       </c>
@@ -3858,7 +3248,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A137" s="1">
         <v>1005</v>
       </c>
@@ -3878,7 +3268,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A138" s="1">
         <v>1001</v>
       </c>
@@ -3898,7 +3288,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A139" s="1">
         <v>1002</v>
       </c>
@@ -3918,7 +3308,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A140" s="1">
         <v>1003</v>
       </c>
@@ -3938,7 +3328,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A141" s="1">
         <v>1003</v>
       </c>
@@ -3958,7 +3348,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A142" s="1">
         <v>1006</v>
       </c>
@@ -3978,7 +3368,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A143" s="1">
         <v>1004</v>
       </c>
@@ -3998,7 +3388,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A144" s="1">
         <v>1004</v>
       </c>
@@ -4018,7 +3408,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A145" s="1">
         <v>1005</v>
       </c>
@@ -4038,7 +3428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A146" s="1">
         <v>1001</v>
       </c>
@@ -4058,7 +3448,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A147" s="1">
         <v>1002</v>
       </c>
@@ -4078,7 +3468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A148" s="1">
         <v>1003</v>
       </c>
@@ -4098,7 +3488,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A149" s="1">
         <v>1003</v>
       </c>
@@ -4118,7 +3508,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A150" s="1">
         <v>1006</v>
       </c>
@@ -4138,7 +3528,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A151" s="1">
         <v>1001</v>
       </c>
@@ -4158,7 +3548,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A152" s="1">
         <v>1004</v>
       </c>
@@ -4178,7 +3568,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A153" s="1">
         <v>1005</v>
       </c>
@@ -4198,7 +3588,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A154" s="1">
         <v>1001</v>
       </c>
@@ -4218,7 +3608,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A155" s="1">
         <v>1002</v>
       </c>
@@ -4238,7 +3628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A156" s="1">
         <v>1003</v>
       </c>
@@ -4258,7 +3648,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A157" s="1">
         <v>1006</v>
       </c>
@@ -4278,7 +3668,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A158" s="1">
         <v>1002</v>
       </c>
@@ -4298,7 +3688,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A159" s="1">
         <v>1001</v>
       </c>
@@ -4318,7 +3708,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A160" s="1">
         <v>1004</v>
       </c>
@@ -4338,7 +3728,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A161" s="1">
         <v>1005</v>
       </c>
@@ -4358,7 +3748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A162" s="1">
         <v>1001</v>
       </c>
@@ -4378,7 +3768,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A163" s="1">
         <v>1002</v>
       </c>
@@ -4398,7 +3788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A164" s="1">
         <v>1003</v>
       </c>
@@ -4418,7 +3808,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A165" s="1">
         <v>1006</v>
       </c>
@@ -4438,7 +3828,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A166" s="1">
         <v>1002</v>
       </c>
@@ -4458,7 +3848,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A167" s="1">
         <v>1004</v>
       </c>
@@ -4478,7 +3868,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A168" s="1">
         <v>1004</v>
       </c>
@@ -4498,7 +3888,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A169" s="1">
         <v>1005</v>
       </c>
@@ -4518,7 +3908,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A170" s="1">
         <v>1005</v>
       </c>
@@ -4535,7 +3925,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A171" s="1">
         <v>1001</v>
       </c>
@@ -4555,7 +3945,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A172" s="1">
         <v>1003</v>
       </c>
@@ -4575,7 +3965,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A173" s="1">
         <v>1006</v>
       </c>
@@ -4595,7 +3985,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A174" s="1">
         <v>1002</v>
       </c>
@@ -4615,7 +4005,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A175" s="1">
         <v>1003</v>
       </c>
@@ -4635,7 +4025,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A176" s="1">
         <v>1004</v>
       </c>
@@ -4655,7 +4045,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A177" s="1">
         <v>1006</v>
       </c>
@@ -4675,7 +4065,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A178" s="1">
         <v>1005</v>
       </c>
@@ -4695,7 +4085,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A179" s="1">
         <v>1001</v>
       </c>
@@ -4715,7 +4105,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A180" s="1">
         <v>1001</v>
       </c>
@@ -4735,7 +4125,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A181" s="1">
         <v>1006</v>
       </c>
@@ -4755,7 +4145,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A182" s="1">
         <v>1002</v>
       </c>
@@ -4775,7 +4165,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A183" s="1">
         <v>1003</v>
       </c>
@@ -4795,7 +4185,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A184" s="1">
         <v>1004</v>
       </c>
@@ -4815,7 +4205,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A185" s="1">
         <v>1002</v>
       </c>
@@ -4835,7 +4225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A186" s="1">
         <v>1005</v>
       </c>
@@ -4855,7 +4245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A187" s="1">
         <v>1004</v>
       </c>
@@ -4875,7 +4265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A188" s="1">
         <v>1001</v>
       </c>
@@ -4895,7 +4285,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A189" s="1">
         <v>1006</v>
       </c>
@@ -4915,7 +4305,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A190" s="1">
         <v>1002</v>
       </c>
@@ -4935,7 +4325,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A191" s="1">
         <v>1003</v>
       </c>
@@ -4955,7 +4345,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A192" s="1">
         <v>1004</v>
       </c>
@@ -4975,7 +4365,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A193" s="1">
         <v>1002</v>
       </c>
@@ -4995,7 +4385,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A194" s="1">
         <v>1006</v>
       </c>
@@ -5015,7 +4405,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A195" s="1">
         <v>1004</v>
       </c>
@@ -5035,7 +4425,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A196" s="1">
         <v>1001</v>
       </c>
@@ -5055,7 +4445,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A197" s="1">
         <v>1005</v>
       </c>
@@ -5075,7 +4465,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A198" s="1">
         <v>1002</v>
       </c>
@@ -5095,7 +4485,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A199" s="1">
         <v>1003</v>
       </c>
@@ -5115,7 +4505,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A200" s="1">
         <v>1003</v>
       </c>
@@ -5135,7 +4525,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A201" s="1">
         <v>1002</v>
       </c>
@@ -5155,7 +4545,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A202" s="1">
         <v>1006</v>
       </c>
@@ -5175,7 +4565,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A203" s="1">
         <v>1004</v>
       </c>
@@ -5195,7 +4585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A204" s="1">
         <v>1001</v>
       </c>
@@ -5215,7 +4605,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A205" s="1">
         <v>1005</v>
       </c>
@@ -5235,7 +4625,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A206" s="1">
         <v>1002</v>
       </c>
@@ -5255,7 +4645,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A207" s="1">
         <v>1001</v>
       </c>
@@ -5275,7 +4665,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A208" s="1">
         <v>1003</v>
       </c>
@@ -5295,7 +4685,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A209" s="1">
         <v>1002</v>
       </c>
@@ -5315,7 +4705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A210" s="1">
         <v>1006</v>
       </c>
@@ -5335,7 +4725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A211" s="1">
         <v>1001</v>
       </c>
@@ -5355,7 +4745,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A212" s="1">
         <v>1004</v>
       </c>
@@ -5375,7 +4765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A213" s="1">
         <v>1005</v>
       </c>
@@ -5395,7 +4785,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A214" s="1">
         <v>1002</v>
       </c>
@@ -5415,7 +4805,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A215" s="1">
         <v>1004</v>
       </c>
@@ -5435,7 +4825,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A216" s="1">
         <v>1003</v>
       </c>
@@ -5455,7 +4845,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A217" s="1">
         <v>1006</v>
       </c>
@@ -5475,7 +4865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A218" s="1">
         <v>1006</v>
       </c>
@@ -5495,7 +4885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A219" s="1">
         <v>1001</v>
       </c>
@@ -5515,7 +4905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A220" s="1">
         <v>1001</v>
       </c>
@@ -5535,7 +4925,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A221" s="1">
         <v>1005</v>
       </c>
@@ -5555,7 +4945,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A222" s="1">
         <v>1002</v>
       </c>
@@ -5575,7 +4965,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A223" s="1">
         <v>1004</v>
       </c>
@@ -5595,7 +4985,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A224" s="1">
         <v>1003</v>
       </c>
@@ -5615,7 +5005,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A225" s="1">
         <v>1003</v>
       </c>
@@ -5635,7 +5025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A226" s="1">
         <v>1006</v>
       </c>
@@ -5655,7 +5045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A227" s="1">
         <v>1001</v>
       </c>
@@ -5675,7 +5065,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A228" s="1">
         <v>1002</v>
       </c>
@@ -5695,7 +5085,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A229" s="1">
         <v>1005</v>
       </c>
@@ -5715,7 +5105,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A230" s="1">
         <v>1002</v>
       </c>
@@ -5735,7 +5125,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A231" s="1">
         <v>1004</v>
       </c>
@@ -5755,7 +5145,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A232" s="1">
         <v>1004</v>
       </c>
@@ -5775,7 +5165,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A233" s="1">
         <v>1003</v>
       </c>
@@ -5795,7 +5185,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A234" s="1">
         <v>1006</v>
       </c>
@@ -5815,7 +5205,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A235" s="1">
         <v>1001</v>
       </c>
@@ -5835,7 +5225,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A236" s="1">
         <v>1002</v>
       </c>
@@ -5855,7 +5245,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A237" s="1">
         <v>1005</v>
       </c>
@@ -5875,7 +5265,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A238" s="1">
         <v>1002</v>
       </c>
@@ -5895,7 +5285,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A239" s="1">
         <v>1001</v>
       </c>
@@ -5915,7 +5305,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A240" s="1">
         <v>1004</v>
       </c>
@@ -5935,7 +5325,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A241" s="1">
         <v>1003</v>
       </c>
@@ -5955,7 +5345,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A242" s="1">
         <v>1006</v>
       </c>
@@ -5975,7 +5365,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A243" s="1">
         <v>1005</v>
       </c>
@@ -5995,7 +5385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A244" s="1">
         <v>1002</v>
       </c>
@@ -6015,7 +5405,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A245" s="1">
         <v>1005</v>
       </c>
@@ -6035,7 +5425,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A246" s="1">
         <v>1002</v>
       </c>
@@ -6055,7 +5445,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A247" s="1">
         <v>1004</v>
       </c>
@@ -6075,7 +5465,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A248" s="1">
         <v>1004</v>
       </c>
@@ -6095,7 +5485,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A249" s="1">
         <v>1003</v>
       </c>
@@ -6115,7 +5505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A250" s="1">
         <v>1006</v>
       </c>
@@ -6136,26 +5526,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
       <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="11.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6175,7 +5564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1001</v>
       </c>
@@ -6195,7 +5584,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1002</v>
       </c>
@@ -6215,7 +5604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1003</v>
       </c>
@@ -6235,7 +5624,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>1004</v>
       </c>
@@ -6255,7 +5644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>1005</v>
       </c>
@@ -6275,7 +5664,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>1006</v>
       </c>
@@ -6295,7 +5684,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
@@ -6315,7 +5704,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
@@ -6336,23 +5725,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="340" zoomScaleNormal="340" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6363,7 +5751,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -6374,7 +5762,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -6385,7 +5773,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -6396,7 +5784,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -6407,7 +5795,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -6418,7 +5806,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -6429,7 +5817,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -6441,7 +5829,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>